--- a/PodsumowaniaSpotkan/zadania.xlsx
+++ b/PodsumowaniaSpotkan/zadania.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152510"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Deadline</t>
   </si>
@@ -40,9 +40,6 @@
     <t>22-04-2013</t>
   </si>
   <si>
-    <t>Przygotowanie dokumntu opisującego api MongoDB oraz rozwiązania jego pomiany</t>
-  </si>
-  <si>
     <t>Przygotowanie dokumentu opisującego sharding</t>
   </si>
   <si>
@@ -53,13 +50,59 @@
   </si>
   <si>
     <t>Opisanie zapisów, oraz przechowywania danych, struktury itp...</t>
+  </si>
+  <si>
+    <t>Przygotowanie dokumntu opisującego api MongoDB oraz rozwiązania jego podmiany</t>
+  </si>
+  <si>
+    <t>początek maja</t>
+  </si>
+  <si>
+    <t>* Opracowanie formatu w jakim będzie nam wygodnie przechowywać BSON ( na podstawie kodu MongoDB
+* Parsowanie do tego formatu
+* Specyfikacja:  http://bsonspec.org/#/specification</t>
+  </si>
+  <si>
+    <t>* Zrobienie nasłuchu na porcie
+* Odbieranie wiadomości</t>
+  </si>
+  <si>
+    <t>* Przygotowanie testowych requestów
+* Przygotowanie harmonogramów</t>
+  </si>
+  <si>
+    <t>* Parsowanie przychodzących requestów (nie wliczając BSON, który ma jedynia tymczasowo zostać zapisany jako np.: byte[]  documents; w odpowiednich strukturach i dalej przekazany osobą odpowiedzialnym za bson)
+* http://docs.mongodb.org/meta-driver/latest/legacy/mongodb-wire-protocol/
+* https://github.com/sokolowskip/rso/blob/master/docs/Opis%20interfejsu.docx</t>
+  </si>
+  <si>
+    <t>* opisanie mongos,
+* jak startuje
+* jakie wykonuje komendy
+* jak wygląda jego sterowanie
+* https://github.com/mongodb/mongo/blob/master/src/mongo/s/server.cpp</t>
+  </si>
+  <si>
+    <t>Przed czasem</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>STATUSY</t>
+  </si>
+  <si>
+    <t>Spóźniony</t>
+  </si>
+  <si>
+    <t>Bardzo spóźniony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +110,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,14 +196,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - akcent 1" xfId="4" builtinId="31"/>
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutralne" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Złe" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -108,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="E7:K8" totalsRowShown="0">
-  <autoFilter ref="E7:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="E7:K9" totalsRowShown="0">
+  <autoFilter ref="E7:K9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Deadline"/>
     <tableColumn id="2" name="Paweł sokołowski"/>
@@ -119,7 +247,7 @@
     <tableColumn id="6" name="Tomasz Adamiec"/>
     <tableColumn id="7" name="Marcin Wnuk"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -166,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,22 +514,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:K8"/>
+  <dimension ref="B7:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -424,33 +555,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="2:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/PodsumowaniaSpotkan/zadania.xlsx
+++ b/PodsumowaniaSpotkan/zadania.xlsx
@@ -506,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,16 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
     <col min="8" max="8" width="50.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>
